--- a/IPC CA RD Y MEX.xlsx
+++ b/IPC CA RD Y MEX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laalvarado\Documents\GitHub\INE_LaTeX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jo/GitHub/INE_LaTeX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033108F-1933-4414-81CD-E0CD242016B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE29630-615D-A844-8BBA-12A1358C8839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5260" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guatemala" sheetId="1" r:id="rId1"/>
@@ -22,28 +22,17 @@
     <sheet name="Panamá" sheetId="7" r:id="rId7"/>
     <sheet name="México" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="15">
   <si>
     <t>indice</t>
   </si>
@@ -173,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,6 +177,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -505,13 +498,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>138.97999999999999</v>
       </c>
@@ -533,7 +526,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>139.16999999999999</v>
       </c>
@@ -544,7 +537,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>139.11000000000001</v>
       </c>
@@ -555,7 +548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>139.94999999999999</v>
       </c>
@@ -566,7 +559,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>140.32</v>
       </c>
@@ -577,7 +570,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>141.47999999999999</v>
       </c>
@@ -588,7 +581,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>141.4</v>
       </c>
@@ -599,7 +592,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>140.18</v>
       </c>
@@ -610,7 +603,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>139.36000000000001</v>
       </c>
@@ -621,7 +614,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>140.33000000000001</v>
       </c>
@@ -632,7 +625,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>140.94999999999999</v>
       </c>
@@ -643,7 +636,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>141.80000000000001</v>
       </c>
@@ -654,7 +647,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>141.46</v>
       </c>
@@ -665,7 +658,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>140.88999999999999</v>
       </c>
@@ -676,7 +669,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>141.57</v>
       </c>
@@ -687,7 +680,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>142.58000000000001</v>
       </c>
@@ -698,7 +691,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>142.85</v>
       </c>
@@ -709,7 +702,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>144.86000000000001</v>
       </c>
@@ -720,7 +713,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>145.47</v>
       </c>
@@ -731,7 +724,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>146.05000000000001</v>
       </c>
@@ -742,7 +735,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>146.28</v>
       </c>
@@ -753,7 +746,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>147.83000000000001</v>
       </c>
@@ -764,7 +757,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>148.65</v>
       </c>
@@ -775,7 +768,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>148.63999999999999</v>
       </c>
@@ -786,7 +779,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>148.87</v>
       </c>
@@ -797,7 +790,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>149.34</v>
       </c>
@@ -808,7 +801,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>149.84</v>
       </c>
@@ -819,7 +812,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>150</v>
       </c>
@@ -830,7 +823,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>150.24</v>
       </c>
@@ -841,7 +834,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>150.52000000000001</v>
       </c>
@@ -852,7 +845,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>151.02000000000001</v>
       </c>
@@ -863,7 +856,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>151.33000000000001</v>
       </c>
@@ -874,7 +867,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>151.65</v>
       </c>
@@ -885,7 +878,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>152.19999999999999</v>
       </c>
@@ -896,7 +889,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>152.94</v>
       </c>
@@ -907,7 +900,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>153.19999999999999</v>
       </c>
@@ -918,7 +911,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>153.13999999999999</v>
       </c>
@@ -929,7 +922,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>153.79</v>
       </c>
@@ -940,7 +933,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>156.09</v>
       </c>
@@ -951,7 +944,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>156.93</v>
       </c>
@@ -962,7 +955,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>158.97999999999999</v>
       </c>
@@ -973,7 +966,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>161.88999999999999</v>
       </c>
@@ -984,7 +977,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>163.63999999999999</v>
       </c>
@@ -995,7 +988,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>164.76</v>
       </c>
@@ -1006,7 +999,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>165.35</v>
       </c>
@@ -1017,7 +1010,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>166.97</v>
       </c>
@@ -1028,7 +1021,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>166.96</v>
       </c>
@@ -1039,7 +1032,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>167.35</v>
       </c>
@@ -1050,7 +1043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>167.98</v>
       </c>
@@ -1061,7 +1054,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>169.05</v>
       </c>
@@ -1072,27 +1065,19 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>170.05</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>169.69</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C52">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>171.05</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,13 +1090,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>112.24</v>
       </c>
@@ -1133,7 +1118,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>112.44</v>
       </c>
@@ -1144,7 +1129,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>112.69</v>
       </c>
@@ -1155,7 +1140,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>112.87</v>
       </c>
@@ -1166,7 +1151,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>113.01</v>
       </c>
@@ -1177,7 +1162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>112.85</v>
       </c>
@@ -1188,7 +1173,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>112.56</v>
       </c>
@@ -1199,7 +1184,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>112.16</v>
       </c>
@@ -1210,7 +1195,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>111.99</v>
       </c>
@@ -1221,7 +1206,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>112.04</v>
       </c>
@@ -1232,7 +1217,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>112.17</v>
       </c>
@@ -1243,7 +1228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>112.29</v>
       </c>
@@ -1254,7 +1239,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>112.15</v>
       </c>
@@ -1265,7 +1250,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>112</v>
       </c>
@@ -1276,7 +1261,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112.09</v>
       </c>
@@ -1287,7 +1272,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>111.69</v>
       </c>
@@ -1298,7 +1283,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>111.94</v>
       </c>
@@ -1309,7 +1294,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>112.59</v>
       </c>
@@ -1320,7 +1305,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>112.49</v>
       </c>
@@ -1331,7 +1316,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>111.82</v>
       </c>
@@ -1342,7 +1327,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>111.56</v>
       </c>
@@ -1353,7 +1338,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>111.81</v>
       </c>
@@ -1364,7 +1349,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>111.98</v>
       </c>
@@ -1375,7 +1360,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>112.2</v>
       </c>
@@ -1386,7 +1371,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>112.49</v>
       </c>
@@ -1397,7 +1382,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>113.19</v>
       </c>
@@ -1408,7 +1393,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>114.08</v>
       </c>
@@ -1419,7 +1404,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>114.81</v>
       </c>
@@ -1430,7 +1415,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>114.84</v>
       </c>
@@ -1441,7 +1426,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>115.51</v>
       </c>
@@ -1452,7 +1437,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>116.36</v>
       </c>
@@ -1463,7 +1448,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>116.63</v>
       </c>
@@ -1474,7 +1459,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>117.1</v>
       </c>
@@ -1485,7 +1470,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>117.95</v>
       </c>
@@ -1496,7 +1481,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>118.92</v>
       </c>
@@ -1507,7 +1492,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>119.06</v>
       </c>
@@ -1518,7 +1503,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>119.79</v>
       </c>
@@ -1529,7 +1514,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>120.73</v>
       </c>
@@ -1540,7 +1525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>121.71</v>
       </c>
@@ -1551,7 +1536,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>122.32</v>
       </c>
@@ -1562,7 +1547,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>123.43</v>
       </c>
@@ -1573,7 +1558,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>124.47</v>
       </c>
@@ -1584,7 +1569,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>124.99</v>
       </c>
@@ -1595,7 +1580,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>125.56</v>
       </c>
@@ -1606,7 +1591,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>125.87</v>
       </c>
@@ -1617,7 +1602,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>126.76</v>
       </c>
@@ -1628,7 +1613,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>127.63</v>
       </c>
@@ -1639,7 +1624,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>127.77</v>
       </c>
@@ -1650,7 +1635,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>128.21</v>
       </c>
@@ -1661,7 +1646,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>128.97</v>
       </c>
@@ -1672,9 +1657,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>129.97</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1683,19 +1668,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>130.97</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1704,13 +1680,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>323.3</v>
       </c>
@@ -1732,7 +1708,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>325.8</v>
       </c>
@@ -1743,7 +1719,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>327.10000000000002</v>
       </c>
@@ -1754,7 +1730,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>330.1</v>
       </c>
@@ -1765,7 +1741,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>331.3</v>
       </c>
@@ -1776,7 +1752,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>331.6</v>
       </c>
@@ -1787,7 +1763,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>332.5</v>
       </c>
@@ -1798,7 +1774,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>332.7</v>
       </c>
@@ -1809,7 +1785,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>333.2</v>
       </c>
@@ -1820,7 +1796,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>334</v>
       </c>
@@ -1831,7 +1807,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>335</v>
       </c>
@@ -1842,7 +1818,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>336.4</v>
       </c>
@@ -1853,7 +1829,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>337.2</v>
       </c>
@@ -1864,7 +1840,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>338.8</v>
       </c>
@@ -1875,7 +1851,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>339.8</v>
       </c>
@@ -1886,7 +1862,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>341.1</v>
       </c>
@@ -1897,7 +1873,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>338.9</v>
       </c>
@@ -1908,7 +1884,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>340.4</v>
       </c>
@@ -1919,7 +1895,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>342.8</v>
       </c>
@@ -1930,7 +1906,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>343.4</v>
       </c>
@@ -1941,7 +1917,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>344.5</v>
       </c>
@@ -1952,7 +1928,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>346.2</v>
       </c>
@@ -1963,7 +1939,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>347.8</v>
       </c>
@@ -1974,7 +1950,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>349.9</v>
       </c>
@@ -1985,7 +1961,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>351.3</v>
       </c>
@@ -1996,7 +1972,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>351.9</v>
       </c>
@@ -2007,7 +1983,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>353.2</v>
       </c>
@@ -2018,7 +1994,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>354.6</v>
       </c>
@@ -2029,7 +2005,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>355.3</v>
       </c>
@@ -2040,7 +2016,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>356.3</v>
       </c>
@@ -2051,7 +2027,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>357.4</v>
       </c>
@@ -2062,7 +2038,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>358.8</v>
       </c>
@@ -2073,7 +2049,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>360.4</v>
       </c>
@@ -2084,7 +2060,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>362.3</v>
       </c>
@@ -2095,7 +2071,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>365</v>
       </c>
@@ -2106,7 +2082,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>368.5</v>
       </c>
@@ -2117,7 +2093,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>373</v>
       </c>
@@ -2128,7 +2104,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>374.3</v>
       </c>
@@ -2139,7 +2115,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>377.8</v>
       </c>
@@ -2150,7 +2126,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>384.2</v>
       </c>
@@ -2161,7 +2137,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>387.6</v>
       </c>
@@ -2172,7 +2148,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>392.7</v>
       </c>
@@ -2183,7 +2159,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>396.2</v>
       </c>
@@ -2194,7 +2170,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>396.1</v>
       </c>
@@ -2205,7 +2181,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>396.6</v>
       </c>
@@ -2216,7 +2192,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>399.2</v>
       </c>
@@ -2227,7 +2203,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>403.1</v>
       </c>
@@ -2238,7 +2214,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>404.6</v>
       </c>
@@ -2249,7 +2225,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>406.3</v>
       </c>
@@ -2260,7 +2236,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>411</v>
       </c>
@@ -2271,30 +2247,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>412</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>413</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2304,12 +2271,12 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>218.6</v>
       </c>
@@ -2331,7 +2298,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>219.2</v>
       </c>
@@ -2342,7 +2309,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>223.19</v>
       </c>
@@ -2353,7 +2320,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>225.34</v>
       </c>
@@ -2364,7 +2331,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>227.06</v>
       </c>
@@ -2375,7 +2342,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>227.26</v>
       </c>
@@ -2386,7 +2353,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>228.05</v>
       </c>
@@ -2397,7 +2364,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>227.98</v>
       </c>
@@ -2408,7 +2375,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>227.67</v>
       </c>
@@ -2419,7 +2386,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>228.44</v>
       </c>
@@ -2430,7 +2397,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>230.24</v>
       </c>
@@ -2441,7 +2408,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>232.59</v>
       </c>
@@ -2452,7 +2419,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>232.63</v>
       </c>
@@ -2463,7 +2430,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>233.26</v>
       </c>
@@ -2474,7 +2441,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>233.05</v>
       </c>
@@ -2485,7 +2452,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>232.65</v>
       </c>
@@ -2496,7 +2463,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>233.62</v>
       </c>
@@ -2507,7 +2474,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>235.49</v>
       </c>
@@ -2518,7 +2485,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>235.91</v>
       </c>
@@ -2529,7 +2496,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>234.53</v>
       </c>
@@ -2540,7 +2507,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>234.06</v>
       </c>
@@ -2551,7 +2518,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>234.58</v>
       </c>
@@ -2562,7 +2529,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>236.33</v>
       </c>
@@ -2573,7 +2540,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>239.4</v>
       </c>
@@ -2584,7 +2551,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>240.03</v>
       </c>
@@ -2595,7 +2562,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>242.06</v>
       </c>
@@ -2606,7 +2573,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>242.63</v>
       </c>
@@ -2617,7 +2584,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>242.89</v>
       </c>
@@ -2628,7 +2595,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>243.01</v>
       </c>
@@ -2639,7 +2606,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>244.77</v>
       </c>
@@ -2650,7 +2617,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>245.62</v>
       </c>
@@ -2661,7 +2628,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>246.21</v>
       </c>
@@ -2672,7 +2639,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>247.77</v>
       </c>
@@ -2683,7 +2650,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>249.62</v>
       </c>
@@ -2694,7 +2661,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>253.1</v>
       </c>
@@ -2705,7 +2672,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>256.66000000000003</v>
       </c>
@@ -2716,7 +2683,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>258.47000000000003</v>
       </c>
@@ -2727,7 +2694,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>260.33</v>
       </c>
@@ -2738,7 +2705,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>263.83999999999997</v>
       </c>
@@ -2749,7 +2716,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>267.05</v>
       </c>
@@ -2760,7 +2727,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>268.79000000000002</v>
       </c>
@@ -2771,7 +2738,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>270.14999999999998</v>
       </c>
@@ -2782,7 +2749,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>273.76</v>
       </c>
@@ -2793,7 +2760,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>276.12</v>
       </c>
@@ -2804,7 +2771,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>276.31</v>
       </c>
@@ -2815,7 +2782,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>280</v>
       </c>
@@ -2826,7 +2793,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>281.89999999999998</v>
       </c>
@@ -2837,7 +2804,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>286.39999999999998</v>
       </c>
@@ -2848,7 +2815,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>286.7</v>
       </c>
@@ -2859,7 +2826,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>289.79000000000002</v>
       </c>
@@ -2870,30 +2837,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>290.79000000000002</v>
-      </c>
-      <c r="B52" s="8" t="s">
+        <v>291.2</v>
+      </c>
+      <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>291.79000000000002</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2903,12 +2861,12 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>97.679211870000003</v>
       </c>
@@ -2930,7 +2888,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>97.759031789999995</v>
       </c>
@@ -2941,7 +2899,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>97.617418020000002</v>
       </c>
@@ -2952,7 +2910,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>98.165424299999998</v>
       </c>
@@ -2963,7 +2921,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>98.298055500000004</v>
       </c>
@@ -2974,7 +2932,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>98.568195180000004</v>
       </c>
@@ -2985,7 +2943,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>99.291642809999999</v>
       </c>
@@ -2996,7 +2954,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>99.193890580000001</v>
       </c>
@@ -3007,7 +2965,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>99.097494049999995</v>
       </c>
@@ -3018,7 +2976,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>99.024797930000005</v>
       </c>
@@ -3029,7 +2987,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>99.231689320000001</v>
       </c>
@@ -3040,7 +2998,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>99.115445679999993</v>
       </c>
@@ -3051,7 +3009,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>99.225243599999999</v>
       </c>
@@ -3062,7 +3020,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>99.508993009999998</v>
       </c>
@@ -3073,7 +3031,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>99.478912469999997</v>
       </c>
@@ -3084,7 +3042,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>99.040237869999999</v>
       </c>
@@ -3095,7 +3053,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>98.896445709999995</v>
       </c>
@@ -3106,7 +3064,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>98.875348310000007</v>
       </c>
@@ -3117,7 +3075,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>99.127692339999996</v>
       </c>
@@ -3128,7 +3086,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>99.123686579999998</v>
       </c>
@@ -3139,7 +3097,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>99.393758820000002</v>
       </c>
@@ -3150,7 +3108,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>99.472841919999993</v>
       </c>
@@ -3161,7 +3119,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>99.474323560000002</v>
       </c>
@@ -3172,7 +3130,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -3183,7 +3141,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>100.18</v>
       </c>
@@ -3194,7 +3152,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>99.921244529999996</v>
       </c>
@@ -3205,7 +3163,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>99.949181179999997</v>
       </c>
@@ -3216,7 +3174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>100.2384619</v>
       </c>
@@ -3227,7 +3185,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>100.22344409999999</v>
       </c>
@@ -3238,7 +3196,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>100.7619232</v>
       </c>
@@ -3249,7 +3207,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>100.5549128</v>
       </c>
@@ -3260,7 +3218,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>100.8332302</v>
       </c>
@@ -3271,7 +3229,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>101.4674681</v>
       </c>
@@ -3282,7 +3240,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>101.96356230000001</v>
       </c>
@@ -3293,7 +3251,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>102.80237959999999</v>
       </c>
@@ -3304,7 +3262,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>103.2989079</v>
       </c>
@@ -3315,7 +3273,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>103.6812099</v>
       </c>
@@ -3326,7 +3284,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>104.8147022</v>
       </c>
@@ -3337,7 +3295,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>105.7394122</v>
       </c>
@@ -3348,7 +3306,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>107.40707740000001</v>
       </c>
@@ -3359,7 +3317,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>108.97</v>
       </c>
@@ -3370,7 +3328,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>110.89</v>
       </c>
@@ -3381,7 +3339,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>112.1</v>
       </c>
@@ -3392,7 +3350,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>113.06</v>
       </c>
@@ -3403,7 +3361,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>111.98</v>
       </c>
@@ -3414,7 +3372,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>111.13</v>
       </c>
@@ -3425,7 +3383,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>111.29</v>
       </c>
@@ -3436,7 +3394,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>111.44</v>
       </c>
@@ -3447,7 +3405,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>111.62</v>
       </c>
@@ -3458,7 +3416,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>110.66</v>
       </c>
@@ -3469,30 +3427,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>111.66</v>
-      </c>
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>110.41</v>
+      </c>
+      <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>112.66</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3502,12 +3451,12 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3518,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>95.250891820000007</v>
       </c>
@@ -3529,7 +3478,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>95.604163560000003</v>
       </c>
@@ -3540,7 +3489,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>96.229748920000006</v>
       </c>
@@ -3551,7 +3500,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>96.737577040000005</v>
       </c>
@@ -3562,7 +3511,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>96.708137730000004</v>
       </c>
@@ -3573,7 +3522,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>96.53150187</v>
       </c>
@@ -3584,7 +3533,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>96.980451360000004</v>
       </c>
@@ -3595,7 +3544,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>97.311643619999998</v>
       </c>
@@ -3606,7 +3555,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>97.679635009999998</v>
       </c>
@@ -3617,7 +3566,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>98.334659680000001</v>
       </c>
@@ -3628,7 +3577,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>98.702651079999995</v>
       </c>
@@ -3639,7 +3588,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>98.901366429999996</v>
       </c>
@@ -3650,7 +3599,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>99.225198849999998</v>
       </c>
@@ -3661,7 +3610,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>99.100081779999996</v>
       </c>
@@ -3672,7 +3621,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>98.584893829999999</v>
       </c>
@@ -3683,7 +3632,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>97.775312769999999</v>
       </c>
@@ -3694,7 +3643,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>97.664915350000001</v>
       </c>
@@ -3705,7 +3654,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>99.328236439999998</v>
       </c>
@@ -3716,7 +3665,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>101.1976327</v>
       </c>
@@ -3727,7 +3676,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>101.9851343</v>
       </c>
@@ -3738,7 +3687,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>102.596</v>
       </c>
@@ -3749,7 +3698,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>103.276</v>
       </c>
@@ -3760,7 +3709,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>103.893</v>
       </c>
@@ -3771,7 +3720,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>104.39400000000001</v>
       </c>
@@ -3782,7 +3731,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>105.404</v>
       </c>
@@ -3793,7 +3742,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>106.124</v>
       </c>
@@ -3804,7 +3753,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>106.764</v>
       </c>
@@ -3815,7 +3764,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>107.206</v>
       </c>
@@ -3826,7 +3775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>107.901</v>
       </c>
@@ -3837,7 +3786,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>108.58499999999999</v>
       </c>
@@ -3848,7 +3797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>109.16800000000001</v>
       </c>
@@ -3859,7 +3808,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>110.039</v>
       </c>
@@ -3870,7 +3819,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>110.535</v>
       </c>
@@ -3881,7 +3830,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>111.244</v>
       </c>
@@ -3892,7 +3841,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>112.446</v>
       </c>
@@ -3903,7 +3852,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>113.26300000000001</v>
       </c>
@@ -3914,7 +3863,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>114.602</v>
       </c>
@@ -3925,7 +3874,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>115.658</v>
       </c>
@@ -3936,7 +3885,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>116.431</v>
       </c>
@@ -3947,7 +3896,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>117.544</v>
       </c>
@@ -3958,7 +3907,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>118.122</v>
       </c>
@@ -3969,7 +3918,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>118.877</v>
       </c>
@@ -3980,7 +3929,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>119.468</v>
       </c>
@@ -3991,7 +3940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>119.718</v>
       </c>
@@ -4002,7 +3951,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>120.07</v>
       </c>
@@ -4013,7 +3962,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>120.41</v>
       </c>
@@ -4024,7 +3973,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>120.97</v>
       </c>
@@ -4035,7 +3984,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>122.13</v>
       </c>
@@ -4046,7 +3995,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>122.9</v>
       </c>
@@ -4057,7 +4006,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>123.04</v>
       </c>
@@ -4068,30 +4017,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <v>124.04</v>
-      </c>
-      <c r="B52" s="8" t="s">
+        <v>123.3</v>
+      </c>
+      <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>125.04</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4101,12 +4041,12 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>104.3818788</v>
       </c>
@@ -4128,7 +4068,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>104.47547969999999</v>
       </c>
@@ -4139,7 +4079,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>104.9075837</v>
       </c>
@@ -4150,7 +4090,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>105.20208649999999</v>
       </c>
@@ -4161,7 +4101,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>105.29618739999999</v>
       </c>
@@ -4172,7 +4112,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104.9474841</v>
       </c>
@@ -4183,7 +4123,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105.17908629999999</v>
       </c>
@@ -4194,7 +4134,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>104.8893836</v>
       </c>
@@ -4205,7 +4145,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>104.8395831</v>
       </c>
@@ -4216,7 +4156,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>104.7846826</v>
       </c>
@@ -4227,7 +4167,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>104.7690824</v>
       </c>
@@ -4238,7 +4178,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>104.6009808</v>
       </c>
@@ -4249,7 +4189,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>104.7532823</v>
       </c>
@@ -4260,7 +4200,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>104.49057980000001</v>
       </c>
@@ -4271,7 +4211,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>104.0266755</v>
       </c>
@@ -4282,7 +4222,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>102.7049631</v>
       </c>
@@ -4293,7 +4233,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>102.69636300000001</v>
       </c>
@@ -4304,7 +4244,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>103.23016800000001</v>
       </c>
@@ -4315,7 +4255,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>102.8125641</v>
       </c>
@@ -4326,7 +4266,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>102.8296642</v>
       </c>
@@ -4337,7 +4277,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>102.8910648</v>
       </c>
@@ -4348,7 +4288,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>102.74256339999999</v>
       </c>
@@ -4359,7 +4299,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>102.63536240000001</v>
       </c>
@@ -4370,7 +4310,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>102.9521654</v>
       </c>
@@ -4381,7 +4321,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>104.0266755</v>
       </c>
@@ -4392,7 +4332,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>103.8786741</v>
       </c>
@@ -4403,7 +4343,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>104.3266783</v>
       </c>
@@ -4414,7 +4354,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>104.4563795</v>
       </c>
@@ -4425,7 +4365,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>104.6722815</v>
       </c>
@@ -4436,7 +4376,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>104.8612833</v>
       </c>
@@ -4447,7 +4387,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>105.251687</v>
       </c>
@@ -4458,7 +4398,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>105.2900873</v>
       </c>
@@ -4469,7 +4409,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>105.44888880000001</v>
       </c>
@@ -4480,7 +4420,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>105.7662918</v>
       </c>
@@ -4491,7 +4431,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>106.0843948</v>
       </c>
@@ -4502,7 +4442,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>105.65399069999999</v>
       </c>
@@ -4513,7 +4453,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>105.98759389999999</v>
       </c>
@@ -4524,7 +4464,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>106.7203007</v>
       </c>
@@ -4535,7 +4475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>107.64890939999999</v>
       </c>
@@ -4546,7 +4486,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>108.2695152</v>
       </c>
@@ -4557,7 +4497,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>109.08952290000001</v>
       </c>
@@ -4568,7 +4508,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>110.3</v>
       </c>
@@ -4579,7 +4519,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>108.9</v>
       </c>
@@ -4590,7 +4530,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>107.5</v>
       </c>
@@ -4601,7 +4541,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>107.5</v>
       </c>
@@ -4612,7 +4552,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>107.5</v>
       </c>
@@ -4623,7 +4563,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>107.7</v>
       </c>
@@ -4634,7 +4574,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>107.8</v>
       </c>
@@ -4645,7 +4585,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>108.9</v>
       </c>
@@ -4656,7 +4596,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>108.9</v>
       </c>
@@ -4667,30 +4607,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
-        <v>109.9</v>
-      </c>
-      <c r="B52" s="8" t="s">
+        <v>109.1</v>
+      </c>
+      <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>110.9</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4699,13 +4630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="156" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +4647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>103.108</v>
       </c>
@@ -4727,7 +4658,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>103.07899999999999</v>
       </c>
@@ -4738,7 +4669,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103.476</v>
       </c>
@@ -4749,7 +4680,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>103.53100000000001</v>
       </c>
@@ -4760,7 +4691,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>103.233</v>
       </c>
@@ -4771,7 +4702,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>103.29900000000001</v>
       </c>
@@ -4783,7 +4714,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>103.687</v>
       </c>
@@ -4794,7 +4725,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>103.67</v>
       </c>
@@ -4805,7 +4736,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>103.94199999999999</v>
       </c>
@@ -4816,7 +4747,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>104.503</v>
       </c>
@@ -4827,7 +4758,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>105.346</v>
       </c>
@@ -4838,7 +4769,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>105.934</v>
       </c>
@@ -4849,7 +4780,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>106.447</v>
       </c>
@@ -4860,7 +4791,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>106.889</v>
       </c>
@@ -4871,7 +4802,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>106.83799999999999</v>
       </c>
@@ -4882,7 +4813,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>105.755</v>
       </c>
@@ -4893,7 +4824,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>106.16200000000001</v>
       </c>
@@ -4904,7 +4835,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>106.74299999999999</v>
       </c>
@@ -4915,7 +4846,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>107.444</v>
       </c>
@@ -4926,7 +4857,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>107.867</v>
       </c>
@@ -4937,7 +4868,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>108.114</v>
       </c>
@@ -4948,7 +4879,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>108.774</v>
       </c>
@@ -4959,7 +4890,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>108.85599999999999</v>
       </c>
@@ -4970,7 +4901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>109.271</v>
       </c>
@@ -4981,7 +4912,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>110.21</v>
       </c>
@@ -4992,7 +4923,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>110.907</v>
       </c>
@@ -5003,7 +4934,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>111.824</v>
       </c>
@@ -5014,7 +4945,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>112.19</v>
       </c>
@@ -5025,7 +4956,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>112.419</v>
       </c>
@@ -5036,7 +4967,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>113.018</v>
       </c>
@@ -5047,7 +4978,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>113.682</v>
       </c>
@@ -5058,7 +4989,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>113.899</v>
       </c>
@@ -5069,7 +5000,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>114.601</v>
       </c>
@@ -5080,7 +5011,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>115.56100000000001</v>
       </c>
@@ -5091,7 +5022,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>116.884</v>
       </c>
@@ -5102,7 +5033,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>117.30800000000001</v>
       </c>
@@ -5113,7 +5044,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>118.002</v>
       </c>
@@ -5124,7 +5055,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>118.98099999999999</v>
       </c>
@@ -5135,7 +5066,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>120.15900000000001</v>
       </c>
@@ -5146,7 +5077,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>120.809</v>
       </c>
@@ -5157,7 +5088,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>121.02200000000001</v>
       </c>
@@ -5168,7 +5099,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>122.044</v>
       </c>
@@ -5179,7 +5110,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>122.95</v>
       </c>
@@ -5190,7 +5121,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>123.8</v>
       </c>
@@ -5201,7 +5132,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>124.57</v>
       </c>
@@ -5212,7 +5143,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>125.3</v>
       </c>
@@ -5223,7 +5154,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>126</v>
       </c>
@@ -5234,7 +5165,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>126.5</v>
       </c>
@@ -5245,7 +5176,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>127.3</v>
       </c>
@@ -5256,7 +5187,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>127.94</v>
       </c>
@@ -5267,30 +5198,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>127.94</v>
-      </c>
-      <c r="B52" s="8" t="s">
+        <v>128.4</v>
+      </c>
+      <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52">
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>127.94</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2023</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
